--- a/aspnet-core/aspnet-core/src/GYSWP.Web.Host/wwwroot/files/downloadtemp/库存卷烟抽查盘点记录.xlsx
+++ b/aspnet-core/aspnet-core/src/GYSWP.Web.Host/wwwroot/files/downloadtemp/库存卷烟抽查盘点记录.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">商品名称</t>
   </si>
@@ -40,24 +40,6 @@
   <si>
     <t xml:space="preserve">创建时间</t>
   </si>
-  <si>
-    <t xml:space="preserve">中华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卷烟盘存测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵康辰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-22 02:08:10</t>
-  </si>
 </sst>
 </file>
 
@@ -73,11 +55,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="0.55"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="0.55"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -102,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -144,35 +126,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
